--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/C. Tbilisi.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/C. Tbilisi.xlsx
@@ -39,9 +39,6 @@
     <t>Three and more places</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of Rooms in Hotels and Hotel-type enterprises in C. Tbilisi </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -62,6 +59,9 @@
       </rPr>
       <t xml:space="preserve"> Data is confidential or unavailable.</t>
     </r>
+  </si>
+  <si>
+    <t>Number of Rooms in Hotels and Hotel-type enterprises in City Tbilisi Municipality</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -799,7 +799,7 @@
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
